--- a/biology/Botanique/Fragaria/Fragaria.xlsx
+++ b/biology/Botanique/Fragaria/Fragaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fragaria est un genre de plantes à fleurs de la famille des Rosaceae. C'est le nom générique des fraisiers[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fragaria est un genre de plantes à fleurs de la famille des Rosaceae. C'est le nom générique des fraisiers.
 Ce sont des herbacées, tendant à se lignifier, non épineuses, à calice doublé d'un calicule, ayant un faux-fruit charnu, qu'on appelle fraise. Dotées d'un rhizome, elles développent deux sortes de tiges feuillées : le cœur, tige à entre-nœuds très courts issue du bourgeon terminal et le stolon, tige rampante aux deux premiers entre-nœuds très longs.
 Parmi les espèces, citons Fragaria vesca, le fraisier des bois dont les petites fraises sont réputées pour leur saveur et l'hybride Fragaria ×ananassa duquel sont issus la plupart des fraisiers cultivés.
 </t>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les espèces adoptent différents ports : 
 les feuilles sont poilues et soyeuses sur les deux faces, le calice est relevé et plaqué contre le fruit, la tige dépasse peu les feuilles. C'est le cas du fraisier vert, Fragaria viridis.
@@ -547,7 +561,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fragaria ont un nombre chromosomique de base n=7.
 Diploïdes (2n=2x=14)
@@ -684,7 +700,7 @@
 18-ploïde (2n=11x=126)
 pentaploïde × 16-ploïde × ×ananassa
 32-ploïde (2n=224)
-Hybrides intergénériques avec le groupe des "potentilles" [1] [2]
+Hybrides intergénériques avec le groupe des "potentilles"  
 Avec Comarum palustre (2n=6x=42) - Le fraisier mis à contribution en parent femelle est soit Fragaria ×ananassa ou chiloense, soit moschata, soit vesca ou vesca semperflorens et le parent mâle est Comarum palustre. Le taux de réussite est de 0,10 % après la première année de culture. L'hybride obtenu sera généralement heptaploïde (2n=7x=49) avec 4 génomes de Fragaria et 3 de Comarum. De multiples rétrocroisements sont mis en œuvre pour transférer les gènes de "couleurs rose des fleurs" et ceux de "fruits comestibles" sur la même plante. Les fleurs sont roses plus ou moins foncé parfois presque rouges et les fruits proches de Fragaria ×ananassa. Les premiers clones sont commercialisés depuis 1989.
 Avec Dasiphora fruticosa (2n=14, 28, 42) - Généralement avec un taux de réussite inférieur à 0,004 %.
 Fragaria moschata × D. fruticosa - Taux de réussite très bas et toutes les plantes sont stériles. Les plantes sont tétra- ou aneuploïdes.
@@ -723,7 +739,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les octoploïdes 3 formules génomiques ont été proposées :
 Model 1: AAAABBCC (Fedorova, 1946)
@@ -783,7 +801,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme fragaria est issu du latin fragum « fraise », pl. fraga, dérivé en -aria, suffixe signifiant « qui à la qualité de, qui appartient à » (cf. français -aire).
 </t>
